--- a/State target counts.xlsx
+++ b/State target counts.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19178\Documents\GitHub\Medium-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E5885703-CA11-4724-9557-B4119885EF99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F764F95D-1C59-464D-8828-3C46300A1995}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target radio stations" sheetId="2" r:id="rId1"/>
     <sheet name="List_of_states" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -851,7 +851,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="19178" refreshedDate="43572.853450925926" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="19178" refreshedDate="43572.853450925926" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{00000000-000A-0000-FFFF-FFFF0E000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C51" sheet="Target radio stations"/>
   </cacheSource>
@@ -1155,7 +1155,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E2:F8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -1510,11 +1510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1602,7 +1602,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I7" si="1">H3&amp;" to "&amp;H4-1</f>
+        <f t="shared" ref="I3:I5" si="1">H3&amp;" to "&amp;H4-1</f>
         <v>25 to 49</v>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
